--- a/data/trans_orig/P13_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P13_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE73AD21-B69A-4669-BAAA-765368C92B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFDE6032-1BCB-410E-84CD-FD8271E6E6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{205E297B-37FB-417D-987B-F8763E308161}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4FF77A09-FB87-49DA-8F95-EB30833C8668}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="574">
   <si>
     <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1624 +77,1690 @@
     <t>2,85%</t>
   </si>
   <si>
-    <t>1,23%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
   <si>
     <t>94,53%</t>
   </si>
   <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2015 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
     <t>7,19%</t>
   </si>
   <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>92,81%</t>
   </si>
   <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
   </si>
   <si>
     <t>95,87%</t>
   </si>
   <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>94,38%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2015 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
   </si>
   <si>
     <t>94,71%</t>
   </si>
   <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>94,19%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
   </si>
 </sst>
 </file>
@@ -2106,7 +2172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FF96AF-B205-4CBF-8F98-5CC2B11AFE3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC76CE4-3A8D-4B22-82A8-85DB678ACE1C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3190,10 +3256,10 @@
         <v>68578</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>34</v>
@@ -3214,10 +3280,10 @@
         <v>83</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>581</v>
@@ -3226,13 +3292,13 @@
         <v>596919</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>1153</v>
@@ -3241,13 +3307,13 @@
         <v>1184668</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,7 +3369,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3315,13 +3381,13 @@
         <v>32878</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -3330,13 +3396,13 @@
         <v>45646</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>75</v>
@@ -3345,13 +3411,13 @@
         <v>78524</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3432,13 @@
         <v>710917</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="H26" s="7">
         <v>703</v>
@@ -3381,13 +3447,13 @@
         <v>737865</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>1406</v>
@@ -3396,13 +3462,13 @@
         <v>1448782</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3536,13 @@
         <v>104411</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H28" s="7">
         <v>156</v>
@@ -3485,13 +3551,13 @@
         <v>163893</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M28" s="7">
         <v>256</v>
@@ -3500,13 +3566,13 @@
         <v>268304</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3587,13 @@
         <v>3172133</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>3141</v>
@@ -3536,28 +3602,28 @@
         <v>3215305</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>6255</v>
       </c>
       <c r="N29" s="7">
-        <v>6387436</v>
+        <v>6387437</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,7 +3665,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3613,7 +3679,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3637,7 +3703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5A0D48-A2AA-4CF0-B421-9A347D061C62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2EE275-46C6-4627-9C4C-65102DDE30FA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3654,7 +3720,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3759,39 +3825,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,39 +3870,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,39 +3915,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3964,13 @@
         <v>22813</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>51</v>
@@ -3913,13 +3979,13 @@
         <v>57290</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -3928,13 +3994,13 @@
         <v>80103</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +4015,13 @@
         <v>481767</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>429</v>
@@ -3964,13 +4030,13 @@
         <v>466475</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>880</v>
@@ -3979,13 +4045,13 @@
         <v>948242</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4119,13 @@
         <v>8870</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -4068,13 +4134,13 @@
         <v>22030</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -4083,13 +4149,13 @@
         <v>30900</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4170,13 @@
         <v>315176</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -4119,13 +4185,13 @@
         <v>318990</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>607</v>
@@ -4134,13 +4200,13 @@
         <v>634166</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4274,13 @@
         <v>24611</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
@@ -4223,13 +4289,13 @@
         <v>88440</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>108</v>
@@ -4238,13 +4304,13 @@
         <v>113050</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4325,13 @@
         <v>643144</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>542</v>
@@ -4274,13 +4340,13 @@
         <v>585802</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>1142</v>
@@ -4289,13 +4355,13 @@
         <v>1228946</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4429,13 @@
         <v>6294</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -4378,13 +4444,13 @@
         <v>24972</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -4393,13 +4459,13 @@
         <v>31266</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4480,13 @@
         <v>206324</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
         <v>188</v>
@@ -4429,13 +4495,13 @@
         <v>194619</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>378</v>
@@ -4444,13 +4510,13 @@
         <v>400943</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4584,13 @@
         <v>12429</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>161</v>
+        <v>248</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -4533,13 +4599,13 @@
         <v>17522</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -4548,13 +4614,13 @@
         <v>29951</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4635,13 @@
         <v>261552</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
         <v>252</v>
@@ -4584,13 +4650,13 @@
         <v>262509</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="M20" s="7">
         <v>501</v>
@@ -4599,13 +4665,13 @@
         <v>524061</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4739,13 @@
         <v>14601</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -4688,13 +4754,13 @@
         <v>37021</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -4703,13 +4769,13 @@
         <v>51621</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4790,13 @@
         <v>648187</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>603</v>
@@ -4739,13 +4805,13 @@
         <v>655734</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="M23" s="7">
         <v>1208</v>
@@ -4754,13 +4820,13 @@
         <v>1303922</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,7 +4882,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4828,13 +4894,13 @@
         <v>69323</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -4843,13 +4909,13 @@
         <v>84287</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="M25" s="7">
         <v>140</v>
@@ -4858,13 +4924,13 @@
         <v>153610</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4945,13 @@
         <v>708745</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="H26" s="7">
         <v>679</v>
@@ -4894,13 +4960,13 @@
         <v>739566</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="M26" s="7">
         <v>1333</v>
@@ -4909,13 +4975,13 @@
         <v>1448311</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,10 +5052,10 @@
         <v>95</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="H28" s="7">
         <v>306</v>
@@ -4998,13 +5064,13 @@
         <v>331560</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="M28" s="7">
         <v>452</v>
@@ -5013,13 +5079,13 @@
         <v>490501</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,10 +5103,10 @@
         <v>104</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="H29" s="7">
         <v>2989</v>
@@ -5049,13 +5115,13 @@
         <v>3223697</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="M29" s="7">
         <v>6049</v>
@@ -5064,13 +5130,13 @@
         <v>6488592</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>305</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,7 +5192,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5150,7 +5216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E921BB-B076-4102-8159-582128F0A0B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9CF961-E140-4564-9FDB-469F2147D339}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5167,7 +5233,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5274,13 +5340,13 @@
         <v>16429</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5289,13 +5355,13 @@
         <v>28502</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -5304,13 +5370,13 @@
         <v>44931</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5391,13 @@
         <v>277332</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H5" s="7">
         <v>251</v>
@@ -5340,13 +5406,13 @@
         <v>260201</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="M5" s="7">
         <v>501</v>
@@ -5355,13 +5421,13 @@
         <v>537533</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5495,13 @@
         <v>11941</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>325</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -5444,13 +5510,13 @@
         <v>19183</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>54</v>
+        <v>335</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>328</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -5459,13 +5525,13 @@
         <v>31124</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>96</v>
+        <v>336</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5546,13 @@
         <v>490634</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>331</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="H8" s="7">
         <v>467</v>
@@ -5495,13 +5561,13 @@
         <v>503901</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>63</v>
+        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>931</v>
@@ -5510,13 +5576,13 @@
         <v>994535</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>106</v>
+        <v>342</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5650,13 @@
         <v>4559</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5599,13 +5665,13 @@
         <v>2135</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>108</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5614,13 +5680,13 @@
         <v>6694</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5701,13 @@
         <v>314006</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>329</v>
@@ -5650,10 +5716,10 @@
         <v>333329</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>117</v>
@@ -5665,13 +5731,13 @@
         <v>647335</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5805,13 @@
         <v>16604</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -5754,13 +5820,13 @@
         <v>27740</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>229</v>
+        <v>363</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -5769,13 +5835,13 @@
         <v>44344</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5856,13 @@
         <v>352387</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="H14" s="7">
         <v>333</v>
@@ -5805,13 +5871,13 @@
         <v>359543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>48</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>669</v>
@@ -5820,13 +5886,13 @@
         <v>711930</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5960,13 @@
         <v>7954</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -5909,13 +5975,13 @@
         <v>15655</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>40</v>
+        <v>378</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5924,13 +5990,13 @@
         <v>23608</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>369</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +6011,13 @@
         <v>203267</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="H17" s="7">
         <v>207</v>
@@ -5960,13 +6026,13 @@
         <v>202045</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>48</v>
+        <v>386</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="M17" s="7">
         <v>411</v>
@@ -5975,13 +6041,13 @@
         <v>405313</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,13 +6115,13 @@
         <v>10728</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>379</v>
+        <v>147</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -6064,13 +6130,13 @@
         <v>21622</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>143</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>394</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -6079,13 +6145,13 @@
         <v>32350</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>157</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +6166,13 @@
         <v>252395</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>385</v>
+        <v>156</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="H20" s="7">
         <v>245</v>
@@ -6115,13 +6181,13 @@
         <v>251493</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>150</v>
+        <v>401</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="M20" s="7">
         <v>493</v>
@@ -6130,13 +6196,13 @@
         <v>503888</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>167</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6204,13 +6270,13 @@
         <v>27162</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>391</v>
+        <v>333</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -6219,13 +6285,13 @@
         <v>50998</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -6234,13 +6300,13 @@
         <v>78160</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,13 +6321,13 @@
         <v>629396</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>400</v>
+        <v>339</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="H23" s="7">
         <v>601</v>
@@ -6270,13 +6336,13 @@
         <v>639025</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="M23" s="7">
         <v>1158</v>
@@ -6285,13 +6351,13 @@
         <v>1268421</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,7 +6413,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6362,10 +6428,10 @@
         <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -6374,13 +6440,13 @@
         <v>29845</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>411</v>
+        <v>93</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>413</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -6389,13 +6455,13 @@
         <v>52050</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>414</v>
+        <v>347</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6413,10 +6479,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="H26" s="7">
         <v>728</v>
@@ -6425,13 +6491,13 @@
         <v>794287</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>419</v>
+        <v>103</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>420</v>
+        <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="M26" s="7">
         <v>1457</v>
@@ -6440,13 +6506,13 @@
         <v>1550664</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>422</v>
+        <v>354</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6514,13 +6580,13 @@
         <v>117581</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>434</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>435</v>
       </c>
       <c r="H28" s="7">
         <v>172</v>
@@ -6529,13 +6595,13 @@
         <v>195680</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>395</v>
+        <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>127</v>
+        <v>436</v>
       </c>
       <c r="M28" s="7">
         <v>284</v>
@@ -6544,13 +6610,13 @@
         <v>313261</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>426</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6565,13 +6631,13 @@
         <v>3275797</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>201</v>
+        <v>439</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>21</v>
+        <v>440</v>
       </c>
       <c r="H29" s="7">
         <v>3161</v>
@@ -6580,10 +6646,10 @@
         <v>3343824</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>405</v>
+        <v>22</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>132</v>
+        <v>441</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>28</v>
@@ -6595,13 +6661,13 @@
         <v>6619621</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>430</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,7 +6723,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -6681,7 +6747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DD4CB3-D562-4D98-9F67-0250772D4FCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1197F2E-3E16-4749-BB08-2EB2E4897E35}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6698,7 +6764,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6805,13 +6871,13 @@
         <v>4162</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -6820,13 +6886,13 @@
         <v>3058</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -6835,13 +6901,13 @@
         <v>7220</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>112</v>
+        <v>451</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,13 +6922,13 @@
         <v>256136</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="H5" s="7">
         <v>532</v>
@@ -6871,13 +6937,13 @@
         <v>268345</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="M5" s="7">
         <v>858</v>
@@ -6886,13 +6952,13 @@
         <v>524480</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>121</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6960,13 +7026,13 @@
         <v>22344</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="H7" s="7">
         <v>57</v>
@@ -6975,13 +7041,13 @@
         <v>42667</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -6990,13 +7056,13 @@
         <v>65011</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>453</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7011,13 +7077,13 @@
         <v>496026</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="H8" s="7">
         <v>660</v>
@@ -7026,13 +7092,13 @@
         <v>511899</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="M8" s="7">
         <v>1023</v>
@@ -7041,13 +7107,13 @@
         <v>1007925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>460</v>
+        <v>330</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7115,13 +7181,13 @@
         <v>24718</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -7130,13 +7196,13 @@
         <v>40746</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
@@ -7145,13 +7211,13 @@
         <v>65464</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7166,13 +7232,13 @@
         <v>296486</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="H11" s="7">
         <v>467</v>
@@ -7181,13 +7247,13 @@
         <v>332538</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="M11" s="7">
         <v>794</v>
@@ -7196,13 +7262,13 @@
         <v>629024</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>456</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7270,13 +7336,13 @@
         <v>20433</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>476</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -7285,13 +7351,13 @@
         <v>28123</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -7300,13 +7366,13 @@
         <v>48556</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7321,13 +7387,13 @@
         <v>301807</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>484</v>
+        <v>133</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="H14" s="7">
         <v>539</v>
@@ -7336,13 +7402,13 @@
         <v>396763</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="M14" s="7">
         <v>810</v>
@@ -7351,13 +7417,13 @@
         <v>698570</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7425,13 +7491,13 @@
         <v>8555</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>113</v>
+        <v>506</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>492</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>493</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -7440,13 +7506,13 @@
         <v>11366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>414</v>
+        <v>508</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>509</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -7455,13 +7521,13 @@
         <v>19921</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7476,13 +7542,13 @@
         <v>188193</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>120</v>
+        <v>512</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>497</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>498</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>465</v>
@@ -7491,13 +7557,13 @@
         <v>220086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>514</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>515</v>
       </c>
       <c r="M17" s="7">
         <v>729</v>
@@ -7506,13 +7572,13 @@
         <v>408278</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7580,13 +7646,13 @@
         <v>15172</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>260</v>
+        <v>518</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>502</v>
+        <v>393</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -7595,13 +7661,13 @@
         <v>24571</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="M19" s="7">
         <v>87</v>
@@ -7610,13 +7676,13 @@
         <v>39742</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>378</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7631,13 +7697,13 @@
         <v>262051</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>507</v>
+        <v>401</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>523</v>
       </c>
       <c r="H20" s="7">
         <v>402</v>
@@ -7646,13 +7712,13 @@
         <v>251051</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="M20" s="7">
         <v>744</v>
@@ -7661,13 +7727,13 @@
         <v>513103</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>48</v>
+        <v>386</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7735,13 +7801,13 @@
         <v>42527</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="H22" s="7">
         <v>102</v>
@@ -7750,13 +7816,13 @@
         <v>63777</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="M22" s="7">
         <v>147</v>
@@ -7765,13 +7831,13 @@
         <v>106304</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>241</v>
+        <v>534</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,13 +7852,13 @@
         <v>584150</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="H23" s="7">
         <v>858</v>
@@ -7801,13 +7867,13 @@
         <v>740426</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="M23" s="7">
         <v>1411</v>
@@ -7816,13 +7882,13 @@
         <v>1324576</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>247</v>
+        <v>543</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7878,7 +7944,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7890,13 +7956,13 @@
         <v>41057</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>526</v>
+        <v>19</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="H25" s="7">
         <v>91</v>
@@ -7905,13 +7971,13 @@
         <v>62555</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>530</v>
+        <v>365</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>518</v>
+        <v>549</v>
       </c>
       <c r="M25" s="7">
         <v>135</v>
@@ -7920,13 +7986,13 @@
         <v>103613</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7941,13 +8007,13 @@
         <v>817662</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>534</v>
+        <v>28</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="H26" s="7">
         <v>970</v>
@@ -7956,13 +8022,13 @@
         <v>805033</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>538</v>
+        <v>372</v>
       </c>
       <c r="M26" s="7">
         <v>1687</v>
@@ -7971,13 +8037,13 @@
         <v>1622695</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8045,13 +8111,13 @@
         <v>178970</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>413</v>
+        <v>560</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="H28" s="7">
         <v>462</v>
@@ -8060,13 +8126,13 @@
         <v>276861</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>276</v>
+        <v>564</v>
       </c>
       <c r="M28" s="7">
         <v>671</v>
@@ -8075,13 +8141,13 @@
         <v>455831</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>476</v>
+        <v>127</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>142</v>
+        <v>565</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8096,13 +8162,13 @@
         <v>3202508</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>420</v>
+        <v>567</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H29" s="7">
         <v>4893</v>
@@ -8111,13 +8177,13 @@
         <v>3526143</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>286</v>
+        <v>570</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="M29" s="7">
         <v>8056</v>
@@ -8126,13 +8192,13 @@
         <v>6728651</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>484</v>
+        <v>133</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>149</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8188,7 +8254,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P13_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFDE6032-1BCB-410E-84CD-FD8271E6E6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96761C0C-6241-4FB3-BA9A-E5A6ACAEE1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4FF77A09-FB87-49DA-8F95-EB30833C8668}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6A6A6BAB-2B86-4C80-9804-0FF7AD19F7A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="556">
   <si>
     <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1629 +77,1584 @@
     <t>2,85%</t>
   </si>
   <si>
-    <t>1,31%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2016 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
   </si>
   <si>
     <t>5,53%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2015 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
     <t>93,45%</t>
   </si>
   <si>
@@ -1712,9 +1667,6 @@
     <t>91,19%</t>
   </si>
   <si>
-    <t>94,0%</t>
-  </si>
-  <si>
     <t>92,92%</t>
   </si>
   <si>
@@ -1730,9 +1682,6 @@
     <t>7,28%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
     <t>8,04%</t>
   </si>
   <si>
@@ -1752,9 +1701,6 @@
   </si>
   <si>
     <t>91,96%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
   </si>
   <si>
     <t>93,11%</t>
@@ -2172,7 +2118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC76CE4-3A8D-4B22-82A8-85DB678ACE1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4299EBC2-1069-4AAC-ABE6-C56D46DEF863}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2314,10 +2260,10 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -2326,19 +2272,19 @@
         <v>16478</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>263</v>
@@ -2347,13 +2293,13 @@
         <v>265217</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>237</v>
@@ -2362,13 +2308,13 @@
         <v>252154</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>500</v>
@@ -2377,13 +2323,13 @@
         <v>517370</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2344,13 @@
         <v>273010</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>245</v>
@@ -2413,13 +2359,13 @@
         <v>260838</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>516</v>
@@ -2428,18 +2374,18 @@
         <v>533848</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2451,13 +2397,13 @@
         <v>22779</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -2466,13 +2412,13 @@
         <v>32865</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -2481,19 +2427,19 @@
         <v>55644</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>445</v>
@@ -2502,13 +2448,13 @@
         <v>470296</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>467</v>
@@ -2517,13 +2463,13 @@
         <v>471084</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>912</v>
@@ -2532,13 +2478,13 @@
         <v>941380</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2499,13 @@
         <v>493075</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>499</v>
@@ -2568,13 +2514,13 @@
         <v>503949</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>964</v>
@@ -2583,18 +2529,18 @@
         <v>997024</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2606,13 +2552,13 @@
         <v>3696</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2621,13 +2567,13 @@
         <v>7274</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2636,19 +2582,19 @@
         <v>10970</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>307</v>
@@ -2657,13 +2603,13 @@
         <v>315150</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>328</v>
@@ -2672,13 +2618,13 @@
         <v>328138</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>635</v>
@@ -2687,13 +2633,13 @@
         <v>643288</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2654,13 @@
         <v>318846</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>335</v>
@@ -2723,13 +2669,13 @@
         <v>335412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>645</v>
@@ -2738,18 +2684,18 @@
         <v>654258</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2761,13 +2707,13 @@
         <v>4578</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -2776,13 +2722,13 @@
         <v>9149</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -2791,19 +2737,19 @@
         <v>13727</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>358</v>
@@ -2812,13 +2758,13 @@
         <v>354093</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>375</v>
@@ -2827,13 +2773,13 @@
         <v>362307</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>733</v>
@@ -2842,13 +2788,13 @@
         <v>716400</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,13 +2809,13 @@
         <v>358671</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>384</v>
@@ -2878,13 +2824,13 @@
         <v>371456</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>746</v>
@@ -2893,18 +2839,18 @@
         <v>730127</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2916,13 +2862,13 @@
         <v>5409</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -2931,13 +2877,13 @@
         <v>13651</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -2946,19 +2892,19 @@
         <v>19060</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>200</v>
@@ -2967,13 +2913,13 @@
         <v>197899</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>185</v>
@@ -2982,13 +2928,13 @@
         <v>194017</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>385</v>
@@ -2997,13 +2943,13 @@
         <v>391916</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +2964,13 @@
         <v>203308</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>198</v>
@@ -3033,13 +2979,13 @@
         <v>207668</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>404</v>
@@ -3048,18 +2994,18 @@
         <v>410976</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3071,13 +3017,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3086,13 +3032,13 @@
         <v>5322</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -3101,19 +3047,19 @@
         <v>5322</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>266</v>
@@ -3122,13 +3068,13 @@
         <v>270811</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H20" s="7">
         <v>265</v>
@@ -3137,13 +3083,13 @@
         <v>272822</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>531</v>
@@ -3152,13 +3098,13 @@
         <v>543633</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3119,13 @@
         <v>270811</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>270</v>
@@ -3188,13 +3134,13 @@
         <v>278144</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>536</v>
@@ -3203,18 +3149,18 @@
         <v>548955</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3226,13 +3172,13 @@
         <v>27278</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -3241,13 +3187,13 @@
         <v>41300</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>66</v>
@@ -3256,19 +3202,19 @@
         <v>68578</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>572</v>
@@ -3277,13 +3223,13 @@
         <v>587749</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>581</v>
@@ -3292,13 +3238,13 @@
         <v>596919</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>1153</v>
@@ -3307,13 +3253,13 @@
         <v>1184668</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3274,13 @@
         <v>615027</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>621</v>
@@ -3343,13 +3289,13 @@
         <v>638219</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1219</v>
@@ -3358,18 +3304,18 @@
         <v>1253246</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3381,13 +3327,13 @@
         <v>32878</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -3396,13 +3342,13 @@
         <v>45646</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>75</v>
@@ -3411,19 +3357,19 @@
         <v>78524</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>703</v>
@@ -3432,13 +3378,13 @@
         <v>710917</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H26" s="7">
         <v>703</v>
@@ -3447,13 +3393,13 @@
         <v>737865</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>1406</v>
@@ -3462,13 +3408,13 @@
         <v>1448782</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3429,13 @@
         <v>743795</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>745</v>
@@ -3498,13 +3444,13 @@
         <v>783511</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1481</v>
@@ -3513,13 +3459,13 @@
         <v>1527306</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3482,13 @@
         <v>104411</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H28" s="7">
         <v>156</v>
@@ -3551,13 +3497,13 @@
         <v>163893</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M28" s="7">
         <v>256</v>
@@ -3566,34 +3512,34 @@
         <v>268304</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>3114</v>
       </c>
       <c r="D29" s="7">
-        <v>3172133</v>
+        <v>3172132</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>3141</v>
@@ -3602,13 +3548,13 @@
         <v>3215305</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>6255</v>
@@ -3617,13 +3563,13 @@
         <v>6387437</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,16 +3581,16 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>3297</v>
@@ -3653,13 +3599,13 @@
         <v>3379198</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>6511</v>
@@ -3668,18 +3614,18 @@
         <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3703,7 +3649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2EE275-46C6-4627-9C4C-65102DDE30FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36ECB59-54A3-42ED-A3D0-21092D2D1A53}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3720,7 +3666,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3825,84 +3771,84 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,44 +3861,44 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3964,13 +3910,13 @@
         <v>22813</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>51</v>
@@ -3979,13 +3925,13 @@
         <v>57290</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -3994,19 +3940,19 @@
         <v>80103</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>451</v>
@@ -4015,13 +3961,13 @@
         <v>481767</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>429</v>
@@ -4030,13 +3976,13 @@
         <v>466475</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>880</v>
@@ -4045,13 +3991,13 @@
         <v>948242</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,13 +4012,13 @@
         <v>504580</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>480</v>
@@ -4081,13 +4027,13 @@
         <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>951</v>
@@ -4096,18 +4042,18 @@
         <v>1028345</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4119,13 +4065,13 @@
         <v>8870</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -4134,13 +4080,13 @@
         <v>22030</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -4149,19 +4095,19 @@
         <v>30900</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>311</v>
@@ -4170,13 +4116,13 @@
         <v>315176</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -4185,13 +4131,13 @@
         <v>318990</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>607</v>
@@ -4200,13 +4146,13 @@
         <v>634166</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,13 +4167,13 @@
         <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -4236,13 +4182,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>636</v>
@@ -4251,18 +4197,18 @@
         <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4274,13 +4220,13 @@
         <v>24611</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
@@ -4289,13 +4235,13 @@
         <v>88440</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>108</v>
@@ -4304,19 +4250,19 @@
         <v>113050</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>600</v>
@@ -4325,13 +4271,13 @@
         <v>643144</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>542</v>
@@ -4340,13 +4286,13 @@
         <v>585802</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>1142</v>
@@ -4355,13 +4301,13 @@
         <v>1228946</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +4322,13 @@
         <v>667755</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>625</v>
@@ -4391,13 +4337,13 @@
         <v>674242</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1250</v>
@@ -4406,18 +4352,18 @@
         <v>1341996</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4429,13 +4375,13 @@
         <v>6294</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -4444,13 +4390,13 @@
         <v>24972</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -4459,19 +4405,19 @@
         <v>31266</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>190</v>
@@ -4480,13 +4426,13 @@
         <v>206324</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H17" s="7">
         <v>188</v>
@@ -4495,13 +4441,13 @@
         <v>194619</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>378</v>
@@ -4510,13 +4456,13 @@
         <v>400943</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4477,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -4546,13 +4492,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -4561,18 +4507,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4584,13 +4530,13 @@
         <v>12429</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -4599,13 +4545,13 @@
         <v>17522</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -4614,19 +4560,19 @@
         <v>29951</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>249</v>
@@ -4635,13 +4581,13 @@
         <v>261552</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>252</v>
@@ -4650,13 +4596,13 @@
         <v>262509</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>501</v>
@@ -4665,13 +4611,13 @@
         <v>524061</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4632,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>269</v>
@@ -4701,13 +4647,13 @@
         <v>280031</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>530</v>
@@ -4716,18 +4662,18 @@
         <v>554012</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4739,13 +4685,13 @@
         <v>14601</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -4754,13 +4700,13 @@
         <v>37021</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -4769,19 +4715,19 @@
         <v>51621</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>605</v>
@@ -4790,13 +4736,13 @@
         <v>648187</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H23" s="7">
         <v>603</v>
@@ -4805,13 +4751,13 @@
         <v>655734</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M23" s="7">
         <v>1208</v>
@@ -4820,13 +4766,13 @@
         <v>1303922</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4787,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>635</v>
@@ -4856,13 +4802,13 @@
         <v>692755</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1253</v>
@@ -4871,18 +4817,18 @@
         <v>1355543</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4894,13 +4840,13 @@
         <v>69323</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>283</v>
+        <v>38</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -4909,13 +4855,13 @@
         <v>84287</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M25" s="7">
         <v>140</v>
@@ -4924,19 +4870,19 @@
         <v>153610</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>654</v>
@@ -4945,13 +4891,13 @@
         <v>708745</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>46</v>
       </c>
       <c r="H26" s="7">
         <v>679</v>
@@ -4960,13 +4906,13 @@
         <v>739566</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M26" s="7">
         <v>1333</v>
@@ -4975,13 +4921,13 @@
         <v>1448311</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,13 +4942,13 @@
         <v>778068</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>757</v>
@@ -5011,13 +4957,13 @@
         <v>823853</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1473</v>
@@ -5026,13 +4972,13 @@
         <v>1601921</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +4995,13 @@
         <v>158941</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H28" s="7">
         <v>306</v>
@@ -5064,13 +5010,13 @@
         <v>331560</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>216</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M28" s="7">
         <v>452</v>
@@ -5079,19 +5025,19 @@
         <v>490501</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>16</v>
+        <v>301</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>3060</v>
@@ -5100,13 +5046,13 @@
         <v>3264895</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H29" s="7">
         <v>2989</v>
@@ -5115,13 +5061,13 @@
         <v>3223697</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>225</v>
       </c>
       <c r="M29" s="7">
         <v>6049</v>
@@ -5130,13 +5076,13 @@
         <v>6488592</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>25</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,13 +5097,13 @@
         <v>3423836</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>3295</v>
@@ -5166,13 +5112,13 @@
         <v>3555257</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>6501</v>
@@ -5181,18 +5127,18 @@
         <v>6979093</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -5216,7 +5162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9CF961-E140-4564-9FDB-469F2147D339}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB01D41-E344-43C1-94C2-3F5AD31C2811}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5233,7 +5179,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5340,13 +5286,13 @@
         <v>16429</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5355,13 +5301,13 @@
         <v>28502</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>319</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -5370,19 +5316,19 @@
         <v>44931</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>250</v>
@@ -5391,13 +5337,13 @@
         <v>277332</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>251</v>
@@ -5406,13 +5352,13 @@
         <v>260201</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>501</v>
@@ -5421,13 +5367,13 @@
         <v>537533</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5388,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -5457,13 +5403,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -5472,18 +5418,18 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5495,13 +5441,13 @@
         <v>11941</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>213</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>231</v>
+        <v>328</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -5510,13 +5456,13 @@
         <v>19183</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>335</v>
+        <v>52</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>330</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -5525,19 +5471,19 @@
         <v>31124</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>464</v>
@@ -5546,13 +5492,13 @@
         <v>490634</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>223</v>
+        <v>334</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>467</v>
@@ -5561,13 +5507,13 @@
         <v>503901</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>276</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>341</v>
+        <v>61</v>
       </c>
       <c r="M8" s="7">
         <v>931</v>
@@ -5576,13 +5522,13 @@
         <v>994535</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5543,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -5612,13 +5558,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -5627,18 +5573,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5650,13 +5596,13 @@
         <v>4559</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>347</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5665,13 +5611,13 @@
         <v>2135</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5680,19 +5626,19 @@
         <v>6694</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>330</v>
@@ -5701,13 +5647,13 @@
         <v>314006</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H11" s="7">
         <v>329</v>
@@ -5716,13 +5662,13 @@
         <v>333329</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M11" s="7">
         <v>659</v>
@@ -5731,13 +5677,13 @@
         <v>647335</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>359</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>360</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5698,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>331</v>
@@ -5767,13 +5713,13 @@
         <v>335464</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -5782,18 +5728,18 @@
         <v>654029</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5805,13 +5751,13 @@
         <v>16604</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>352</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -5820,13 +5766,13 @@
         <v>27740</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -5835,19 +5781,19 @@
         <v>44344</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>336</v>
@@ -5856,13 +5802,13 @@
         <v>352387</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>362</v>
       </c>
       <c r="H14" s="7">
         <v>333</v>
@@ -5871,13 +5817,13 @@
         <v>359543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>48</v>
+        <v>363</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M14" s="7">
         <v>669</v>
@@ -5886,13 +5832,13 @@
         <v>711930</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5853,13 @@
         <v>368991</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -5922,13 +5868,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>711</v>
@@ -5937,18 +5883,18 @@
         <v>756274</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5960,13 +5906,13 @@
         <v>7954</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -5975,13 +5921,13 @@
         <v>15655</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5990,19 +5936,19 @@
         <v>23608</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>270</v>
+        <v>375</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>204</v>
@@ -6011,13 +5957,13 @@
         <v>203267</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
         <v>207</v>
@@ -6026,13 +5972,13 @@
         <v>202045</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>411</v>
@@ -6041,13 +5987,13 @@
         <v>405313</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6008,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>222</v>
@@ -6077,13 +6023,13 @@
         <v>217700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>434</v>
@@ -6092,18 +6038,18 @@
         <v>428921</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6115,13 +6061,13 @@
         <v>10728</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>147</v>
+        <v>329</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -6130,13 +6076,13 @@
         <v>21622</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -6145,19 +6091,19 @@
         <v>32350</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>248</v>
@@ -6166,13 +6112,13 @@
         <v>252395</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>156</v>
+        <v>335</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H20" s="7">
         <v>245</v>
@@ -6181,13 +6127,13 @@
         <v>251493</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M20" s="7">
         <v>493</v>
@@ -6196,13 +6142,13 @@
         <v>503888</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,13 +6163,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -6232,13 +6178,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -6247,18 +6193,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6270,13 +6216,13 @@
         <v>27162</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>333</v>
+        <v>401</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -6285,13 +6231,13 @@
         <v>50998</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>410</v>
+        <v>212</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -6300,19 +6246,19 @@
         <v>78160</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>557</v>
@@ -6321,13 +6267,13 @@
         <v>629396</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>339</v>
+        <v>408</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="H23" s="7">
         <v>601</v>
@@ -6336,13 +6282,13 @@
         <v>639025</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>419</v>
+        <v>220</v>
       </c>
       <c r="M23" s="7">
         <v>1158</v>
@@ -6351,13 +6297,13 @@
         <v>1268421</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6318,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>645</v>
@@ -6387,13 +6333,13 @@
         <v>690023</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1225</v>
@@ -6402,18 +6348,18 @@
         <v>1346581</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6428,10 +6374,10 @@
         <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>424</v>
+        <v>333</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -6440,13 +6386,13 @@
         <v>29845</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>93</v>
+        <v>264</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>417</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -6455,19 +6401,19 @@
         <v>52050</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>729</v>
@@ -6476,13 +6422,13 @@
         <v>756379</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>428</v>
+        <v>339</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="H26" s="7">
         <v>728</v>
@@ -6491,13 +6437,13 @@
         <v>794287</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>154</v>
+        <v>420</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="M26" s="7">
         <v>1457</v>
@@ -6506,13 +6452,13 @@
         <v>1550664</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6473,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>753</v>
@@ -6542,13 +6488,13 @@
         <v>824132</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1503</v>
@@ -6557,13 +6503,13 @@
         <v>1602714</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,13 +6526,13 @@
         <v>117581</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>433</v>
+        <v>375</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>435</v>
+        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>172</v>
@@ -6595,13 +6541,13 @@
         <v>195680</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>13</v>
+        <v>424</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>19</v>
+        <v>425</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="M28" s="7">
         <v>284</v>
@@ -6610,19 +6556,19 @@
         <v>313261</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>163</v>
+        <v>427</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>437</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>3118</v>
@@ -6631,13 +6577,13 @@
         <v>3275797</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>438</v>
+        <v>384</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>439</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="H29" s="7">
         <v>3161</v>
@@ -6646,13 +6592,13 @@
         <v>3343824</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>22</v>
+        <v>429</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>28</v>
+        <v>431</v>
       </c>
       <c r="M29" s="7">
         <v>6279</v>
@@ -6661,13 +6607,13 @@
         <v>6619621</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>442</v>
+        <v>245</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6628,13 @@
         <v>3393378</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>3333</v>
@@ -6697,13 +6643,13 @@
         <v>3539504</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>6563</v>
@@ -6712,18 +6658,18 @@
         <v>6932882</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -6747,7 +6693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1197F2E-3E16-4749-BB08-2EB2E4897E35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54FA017A-939A-4B85-A80B-620773389BE2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6764,7 +6710,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6871,13 +6817,13 @@
         <v>4162</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -6886,13 +6832,13 @@
         <v>3058</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -6901,19 +6847,19 @@
         <v>7220</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>326</v>
@@ -6922,13 +6868,13 @@
         <v>256136</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="H5" s="7">
         <v>532</v>
@@ -6937,13 +6883,13 @@
         <v>268345</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="M5" s="7">
         <v>858</v>
@@ -6952,13 +6898,13 @@
         <v>524480</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,13 +6919,13 @@
         <v>260298</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
@@ -6988,13 +6934,13 @@
         <v>271403</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>869</v>
@@ -7003,18 +6949,18 @@
         <v>531700</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -7026,13 +6972,13 @@
         <v>22344</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>142</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="H7" s="7">
         <v>57</v>
@@ -7041,13 +6987,13 @@
         <v>42667</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -7056,19 +7002,19 @@
         <v>65011</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>468</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>363</v>
@@ -7077,13 +7023,13 @@
         <v>496026</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="H8" s="7">
         <v>660</v>
@@ -7092,13 +7038,13 @@
         <v>511899</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="M8" s="7">
         <v>1023</v>
@@ -7107,13 +7053,13 @@
         <v>1007925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>475</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,13 +7074,13 @@
         <v>518370</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>717</v>
@@ -7143,13 +7089,13 @@
         <v>554566</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1098</v>
@@ -7158,18 +7104,18 @@
         <v>1072936</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7181,13 +7127,13 @@
         <v>24718</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>306</v>
+        <v>464</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -7196,13 +7142,13 @@
         <v>40746</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
@@ -7211,19 +7157,19 @@
         <v>65464</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>482</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>327</v>
@@ -7232,13 +7178,13 @@
         <v>296486</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>313</v>
+        <v>472</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="H11" s="7">
         <v>467</v>
@@ -7247,13 +7193,13 @@
         <v>332538</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="M11" s="7">
         <v>794</v>
@@ -7262,13 +7208,13 @@
         <v>629024</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>491</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,13 +7229,13 @@
         <v>321204</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
@@ -7298,13 +7244,13 @@
         <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>895</v>
@@ -7313,18 +7259,18 @@
         <v>694488</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7336,13 +7282,13 @@
         <v>20433</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>480</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -7351,13 +7297,13 @@
         <v>28123</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -7366,19 +7312,19 @@
         <v>48556</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>271</v>
@@ -7387,13 +7333,13 @@
         <v>301807</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>489</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="H14" s="7">
         <v>539</v>
@@ -7402,13 +7348,13 @@
         <v>396763</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="M14" s="7">
         <v>810</v>
@@ -7417,13 +7363,13 @@
         <v>698570</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>496</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7438,13 +7384,13 @@
         <v>322240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>592</v>
@@ -7453,13 +7399,13 @@
         <v>424886</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>884</v>
@@ -7468,18 +7414,18 @@
         <v>747126</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7491,13 +7437,13 @@
         <v>8555</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>499</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -7506,13 +7452,13 @@
         <v>11366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>507</v>
+        <v>18</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>508</v>
+        <v>57</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>509</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -7521,19 +7467,19 @@
         <v>19921</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>264</v>
@@ -7542,13 +7488,13 @@
         <v>188193</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>503</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>465</v>
@@ -7557,13 +7503,13 @@
         <v>220086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>513</v>
+        <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>514</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>515</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>729</v>
@@ -7572,13 +7518,13 @@
         <v>408278</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,13 +7539,13 @@
         <v>196748</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>491</v>
@@ -7608,13 +7554,13 @@
         <v>231452</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>770</v>
@@ -7623,18 +7569,18 @@
         <v>428199</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7646,13 +7592,13 @@
         <v>15172</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -7661,13 +7607,13 @@
         <v>24571</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>519</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="M19" s="7">
         <v>87</v>
@@ -7676,19 +7622,19 @@
         <v>39742</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>522</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>342</v>
@@ -7697,13 +7643,13 @@
         <v>262051</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="H20" s="7">
         <v>402</v>
@@ -7712,13 +7658,13 @@
         <v>251051</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>525</v>
+        <v>46</v>
       </c>
       <c r="M20" s="7">
         <v>744</v>
@@ -7727,13 +7673,13 @@
         <v>513103</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>526</v>
+        <v>399</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,13 +7694,13 @@
         <v>277223</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>460</v>
@@ -7763,13 +7709,13 @@
         <v>275622</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>831</v>
@@ -7778,18 +7724,18 @@
         <v>552845</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7801,13 +7747,13 @@
         <v>42527</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="H22" s="7">
         <v>102</v>
@@ -7816,13 +7762,13 @@
         <v>63777</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="M22" s="7">
         <v>147</v>
@@ -7831,19 +7777,19 @@
         <v>106304</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>553</v>
@@ -7852,13 +7798,13 @@
         <v>584150</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="H23" s="7">
         <v>858</v>
@@ -7867,13 +7813,13 @@
         <v>740426</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="M23" s="7">
         <v>1411</v>
@@ -7882,13 +7828,13 @@
         <v>1324576</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,13 +7849,13 @@
         <v>626677</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>960</v>
@@ -7918,13 +7864,13 @@
         <v>804203</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1558</v>
@@ -7933,18 +7879,18 @@
         <v>1430880</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7956,13 +7902,13 @@
         <v>41057</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>19</v>
+        <v>530</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="H25" s="7">
         <v>91</v>
@@ -7971,13 +7917,13 @@
         <v>62555</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="M25" s="7">
         <v>135</v>
@@ -7986,19 +7932,19 @@
         <v>103613</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>550</v>
+        <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>717</v>
@@ -8007,13 +7953,13 @@
         <v>817662</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>28</v>
+        <v>537</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="H26" s="7">
         <v>970</v>
@@ -8022,13 +7968,13 @@
         <v>805033</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M26" s="7">
         <v>1687</v>
@@ -8037,13 +7983,13 @@
         <v>1622695</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>557</v>
+        <v>148</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8058,13 +8004,13 @@
         <v>858719</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>1061</v>
@@ -8073,13 +8019,13 @@
         <v>867588</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1822</v>
@@ -8088,13 +8034,13 @@
         <v>1726308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8111,13 +8057,13 @@
         <v>178970</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="H28" s="7">
         <v>462</v>
@@ -8126,13 +8072,13 @@
         <v>276861</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>563</v>
+        <v>122</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="M28" s="7">
         <v>671</v>
@@ -8141,19 +8087,19 @@
         <v>455831</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>127</v>
+        <v>480</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>3163</v>
@@ -8162,13 +8108,13 @@
         <v>3202508</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="H29" s="7">
         <v>4893</v>
@@ -8177,13 +8123,13 @@
         <v>3526143</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>571</v>
+        <v>130</v>
       </c>
       <c r="M29" s="7">
         <v>8056</v>
@@ -8192,13 +8138,13 @@
         <v>6728651</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>133</v>
+        <v>489</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8213,13 +8159,13 @@
         <v>3381478</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>5355</v>
@@ -8228,13 +8174,13 @@
         <v>3803004</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>8727</v>
@@ -8243,18 +8189,18 @@
         <v>7184482</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
